--- a/NFTSetup.xlsx
+++ b/NFTSetup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harry/Documents/GitHub/NFTs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC355C6-138E-654B-86D2-8AC6242CB9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C08FF2-688E-AB4A-9642-C33B25B22414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{E4513711-24F5-7447-A248-AB3E7DD3EEC0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{E4513711-24F5-7447-A248-AB3E7DD3EEC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Layers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Backround 8</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Chance</t>
   </si>
   <si>
@@ -91,19 +88,82 @@
     <t>Layer 1</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
+    <t>Layer 2</t>
+  </si>
+  <si>
+    <t>Folder_Path</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Layer 2 No 2.png</t>
+  </si>
+  <si>
+    <t>Layer 2 No 1.png</t>
+  </si>
+  <si>
+    <t>Layer 1 Puzzle.png</t>
+  </si>
+  <si>
+    <t>Layer 1 Circle.png</t>
+  </si>
+  <si>
+    <t>Layer 1 Square.png</t>
+  </si>
+  <si>
+    <t>Backround 1.png</t>
+  </si>
+  <si>
+    <t>Backround 2.png</t>
+  </si>
+  <si>
+    <t>Backround 3.png</t>
+  </si>
+  <si>
+    <t>Backround 4.png</t>
+  </si>
+  <si>
+    <t>Backround 5.png</t>
+  </si>
+  <si>
+    <t>Backround 6.png</t>
+  </si>
+  <si>
+    <t>Backround 7.png</t>
+  </si>
+  <si>
+    <t>Backround 8.png</t>
+  </si>
+  <si>
+    <t>filePath</t>
+  </si>
+  <si>
+    <t>Layers/Background</t>
+  </si>
+  <si>
+    <t>Layers/Layer 1</t>
+  </si>
+  <si>
+    <t>Layers/Layer 2</t>
   </si>
 </sst>
 </file>
@@ -162,7 +222,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -240,26 +310,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{073A5373-EBDF-F44C-B3FD-6AB0050A7C71}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{073A5373-EBDF-F44C-B3FD-6AB0050A7C71}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{073A5373-EBDF-F44C-B3FD-6AB0050A7C71}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{073A5373-EBDF-F44C-B3FD-6AB0050A7C71}"/>
+  <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{8124DBB1-96D1-A643-A049-8ED628483B1B}" name="layerName"/>
     <tableColumn id="3" xr3:uid="{5EC36F93-AB88-0443-ABB6-BA77DA5524E5}" name="priority"/>
     <tableColumn id="4" xr3:uid="{1DDBC223-B7EA-C041-A0FC-9CADF87A1BB7}" name="duplicate?"/>
+    <tableColumn id="6" xr3:uid="{CC7A9245-00CD-1940-9BA8-6E541A6E74A7}" name="Folder_Path"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{883A2B2B-A45A-7242-AAD8-A231DA16A426}" name="Table2" displayName="Table2" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{883A2B2B-A45A-7242-AAD8-A231DA16A426}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F15">
-    <sortCondition ref="A1:A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{883A2B2B-A45A-7242-AAD8-A231DA16A426}" name="Table2" displayName="Table2" ref="A1:I14" totalsRowShown="0">
+  <autoFilter ref="A1:I14" xr:uid="{883A2B2B-A45A-7242-AAD8-A231DA16A426}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I14">
+    <sortCondition ref="A1:A14"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{690114C1-17CC-7040-8F4E-14C9846DBEF7}" name="name"/>
     <tableColumn id="2" xr3:uid="{DA14804E-D15E-164E-91E6-0C2F3355732F}" name="layerName"/>
+    <tableColumn id="9" xr3:uid="{B5DFDBAC-06CA-9647-8BE6-2A053E1A83AA}" name="fileName"/>
+    <tableColumn id="11" xr3:uid="{64C386B9-1A3E-1847-969B-7B67274F5BBA}" name="filePath">
+      <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{C16EE63A-C21A-244A-80FF-1590084C441C}" name="priority">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
@@ -267,9 +342,10 @@
     <tableColumn id="4" xr3:uid="{CB9879C7-6D70-224A-98EF-50E15BFAE7D9}" name="Chance" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9E6D278C-50B3-5349-948D-480912AB5F8C}" name="duplicates" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{9E6D278C-50B3-5349-948D-480912AB5F8C}" name="duplicates" dataDxfId="7">
       <calculatedColumnFormula>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" xr3:uid="{BC958045-507B-C143-B669-7DADF68A02A9}" name="f"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944327D3-6188-8B48-944A-54712B524B2C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,35 +659,55 @@
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -625,22 +721,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B341EB93-B6AA-2748-9638-625D78D118C7}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,343 +746,420 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Background/Backround 1.png</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Background/Backround 2.png</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Background/Backround 3.png</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H4" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="F5" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Background/Backround 4.png</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Background/Backround 5.png</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Background/Backround 6.png</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Background/Backround 7.png</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Background/Backround 8.png</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Layer 1/Layer 1 Circle.png</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Layer 2/Layer 2 No 1.png</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Layer 1/Layer 1 Puzzle.png</v>
+      </c>
+      <c r="E12">
         <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>0.2</v>
-      </c>
-      <c r="F11" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H12" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Layer 1/Layer 1 Square.png</v>
+      </c>
+      <c r="E13">
         <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H13" s="2">
+        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="2">
-        <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],4,FALSE)&amp;"/"&amp;Table2[[#This Row],[fileName]]</f>
+        <v>Layers/Layer 2/Layer 2 No 2.png</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(Table2[[#This Row],[layerName]],Table1[],2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <f>Table2[[#This Row],[count]]/SUMIF(Table2[layerName],Table2[[#This Row],[layerName]],Table2[count])</f>
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="2">
         <f>COUNTIF(Table2[name],Table2[[#This Row],[name]])-1</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F15">
+  <conditionalFormatting sqref="H2:H14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
